--- a/PythonProject/chapter02/멜론_크롤링.xlsx
+++ b/PythonProject/chapter02/멜론_크롤링.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="2021년 10월 1일 14시 40분 26초" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2021년 10월 3일 18시 47분 36초" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -147,6 +148,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -172,6 +176,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -197,6 +204,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -222,6 +232,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -247,6 +260,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -272,6 +288,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -297,6 +316,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -322,6 +344,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -347,6 +372,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -372,6 +400,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -397,6 +428,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -422,6 +456,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -447,6 +484,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -472,6 +512,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -497,6 +540,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -522,6 +568,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -547,6 +596,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -572,6 +624,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -597,6 +652,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -622,6 +680,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -647,6 +708,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -672,6 +736,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -697,6 +764,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -722,6 +792,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -747,6 +820,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -772,6 +848,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -797,6 +876,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -822,6 +904,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -847,6 +932,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -872,6 +960,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -897,6 +988,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -922,6 +1016,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -947,6 +1044,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -972,6 +1072,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -997,6 +1100,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1022,6 +1128,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1047,6 +1156,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1072,6 +1184,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1097,6 +1212,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1122,6 +1240,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1147,6 +1268,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1172,6 +1296,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1197,6 +1324,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1222,6 +1352,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1247,6 +1380,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1272,6 +1408,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1297,6 +1436,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1322,6 +1464,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1347,6 +1492,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1372,6 +1520,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1397,6 +1548,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1422,6 +1576,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1447,6 +1604,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1472,6 +1632,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1497,6 +1660,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1522,6 +1688,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1547,6 +1716,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1572,6 +1744,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1597,6 +1772,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1622,6 +1800,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1647,6 +1828,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1672,6 +1856,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1697,6 +1884,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1722,6 +1912,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1747,6 +1940,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1772,6 +1968,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1797,6 +1996,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1822,6 +2024,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1847,6 +2052,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1872,6 +2080,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1897,6 +2108,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1922,6 +2136,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1947,6 +2164,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1972,6 +2192,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -1997,6 +2220,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2022,6 +2248,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2047,6 +2276,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2072,6 +2304,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2097,6 +2332,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2122,6 +2360,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2147,6 +2388,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2172,6 +2416,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2197,6 +2444,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2222,6 +2472,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2247,6 +2500,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2272,6 +2528,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2297,6 +2556,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2322,6 +2584,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2347,6 +2612,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2372,6 +2640,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2397,6 +2668,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2422,6 +2696,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2447,6 +2724,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2472,6 +2752,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2497,6 +2780,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2522,6 +2808,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2547,6 +2836,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2572,6 +2864,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2597,6 +2892,9 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
       </spPr>
     </pic>
     <clientData/>
@@ -2616,6 +2914,614 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId100"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1143000" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4636,4 +5542,438 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="29" customWidth="1" min="3" max="3"/>
+    <col width="47" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="90" customHeight="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>STAY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>The Kid LAROI, Justin Bieber</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Stay</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="90" customHeight="1">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>신호등</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>이무진</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>신호등</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="90" customHeight="1">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>My Universe</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Coldplay, 방탄소년단</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>My Universe</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="90" customHeight="1">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OHAYO MY NIGHT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>디핵 (D-Hack), PATEKO (파테코)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>OHAYO MY NIGHT</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="90" customHeight="1">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Next Level</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>aespa</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Next Level</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="90" customHeight="1">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Permission to Dance</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>방탄소년단</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Butter / Permission to Dance</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="90" customHeight="1">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>낙하 (with 아이유)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>AKMU (악뮤)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NEXT EPISODE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="90" customHeight="1">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>바라만 본다</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MSG워너비(M.O.M)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>MSG워너비 1집</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="90" customHeight="1">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Butter</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>방탄소년단</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Butter</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="90" customHeight="1">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Weekend</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>태연 (TAEYEON)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Weekend</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="90" customHeight="1">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Justin Bieber</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Justice</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="90" customHeight="1">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>다정히 내 이름을 부르면</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>경서예지, 전건호</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="90" customHeight="1">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Bad Habits</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ed Sheeran</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Shivers</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="90" customHeight="1">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>좋아좋아</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>조정석</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>슬기로운 의사생활 시즌2 OST Part 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="90" customHeight="1">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dynamite</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>방탄소년단</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Dynamite (DayTime Version)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="90" customHeight="1">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DUMB DUMB</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>전소미</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>DUMB DUMB</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="90" customHeight="1">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Queendom</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Red Velvet (레드벨벳)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Queendom - The 6th Mini Album</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="90" customHeight="1">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>헤픈 우연</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>헤이즈 (Heize)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>HAPPEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="90" customHeight="1">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>시간을 거슬러 (낮에 뜨는 달 X 케이윌)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>케이윌</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>시간을 거슬러 (낮에 뜨는 달 X 케이윌)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="90" customHeight="1">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>고백</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>멜로망스</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>세 번째 '고백'</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="90" customHeight="1">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>이제 나만 믿어요</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>임영웅</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>내일은 미스터트롯 우승자 특전곡</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="90" customHeight="1">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>가을 타나 봐</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>이무진</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>가을 타나 봐 (REVIBE Vol.4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="90" customHeight="1">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>롤린 (Rollin')</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>브레이브걸스</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Rollin'</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="90" customHeight="1">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>라일락</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>아이유</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>IU 5th Album 'LILAC'</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>